--- a/Dataset25.xlsx
+++ b/Dataset25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70L9028\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debdeeppaul/Documents/Procurement/PIDSG25/forecast25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB129597-5A8E-4A64-8B86-676A3C0723FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433EC199-D42E-604D-9717-45B0B82C190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{39FACA68-203D-43F8-8009-A489CDDBDB68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" xr2:uid="{39FACA68-203D-43F8-8009-A489CDDBDB68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>FY24</t>
   </si>
@@ -76,16 +76,47 @@
   <si>
     <t>*Jun-25 onwards 400g/tube</t>
   </si>
+  <si>
+    <t>Hedged</t>
+  </si>
+  <si>
+    <t>Unhedged</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>usd</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Unhedged USD/gm raw silver</t>
+  </si>
+  <si>
+    <t>Unhedged USD/gm silver paste</t>
+  </si>
+  <si>
+    <t>% of raw silver in paste unhedged</t>
+  </si>
+  <si>
+    <t>% of raw silver in paste hedged</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -161,9 +198,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -171,13 +208,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -195,6 +240,3743 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Unhedged supplier</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$14:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Apr-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun-25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul-25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aug-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sep-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oct-25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nov-25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec-25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jan-26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feb-26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mar-26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FY25 Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.4112121263157897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4239201846153846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3839971887850469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3839971887850469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1752992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9485223578947368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3721483749865089</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4011120072454315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91670298893288649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.342483541986407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3003157449840588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3973793311188398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62ED-B945-9D2E-5806F41A3B00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Commodity price</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$32:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.62067200000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64274175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-62ED-B945-9D2E-5806F41A3B00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1421436512"/>
+        <c:axId val="1519216208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1421436512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1519216208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1519216208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421436512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>in gms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$25:$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hedged</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Unhedged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$25:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1428380.1531249995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1089619.846875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1510-1346-8643-B990CCF6DF0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1210601952"/>
+        <c:axId val="1613561488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1210601952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613561488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1613561488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1210601952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>usd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$25:$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hedged</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Unhedged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$25:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2348422.0799999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1522612.2528000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F96D-FF47-B7DB-895978B3AEDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1530505504"/>
+        <c:axId val="1185288000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1530505504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185288000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1185288000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530505504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of raw silver in paste unhedged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.43981481481481483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4513888888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46440972222222221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46440972222222221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3298611111111111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46842000596788197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45873687947591152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70114503580729159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47877067382812499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49429667561848961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAD4-9F49-9D36-E3928DE3D0C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of raw silver in paste hedged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65410217632325274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63263490439887693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61585128604658612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61585128604658612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61585128604658612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61585128604658612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58073695833340355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58125037454157436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58125037454157436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58125037454157436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58125037454157436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58125037454157436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAD4-9F49-9D36-E3928DE3D0C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1125231712"/>
+        <c:axId val="1274549872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1125231712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274549872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1274549872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125231712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137584</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A971A59-8BA1-8E64-3746-226B32F304AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>94191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA2F5E0-7C7D-4310-60DE-7B7F9FB1DB3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296332</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>96309</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119C7172-F9C5-A01E-6717-95800380E30F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>136526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518584</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22226</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E29EDA1-C366-F446-3DA5-2882BABC7526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,23 +4296,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3678CAE-AE47-44A1-89D2-EA4F24D631A0}">
-  <dimension ref="B3:P27"/>
+  <dimension ref="B3:P56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="13" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2">
         <v>45383</v>
       </c>
@@ -571,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,7 +4402,7 @@
         <v>3922.9615597126844</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,7 +4462,7 @@
         <v>1176888.4679138055</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -727,7 +4510,7 @@
         <v>497000</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -775,7 +4558,7 @@
         <v>16429.038440287317</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,7 +4618,7 @@
         <v>4928711.5320861945</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,7 +4678,7 @@
         <v>2075000</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -943,7 +4726,7 @@
         <v>716420.54463651427</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,11 +4774,11 @@
         <v>2905084.828163486</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2">
         <v>45748</v>
       </c>
@@ -1036,7 +4819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +4867,7 @@
         <v>9792</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +4927,7 @@
         <v>3667200</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1187,12 +4970,12 @@
       <c r="O17" s="5">
         <v>86076.030624999999</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="8">
         <f t="shared" si="4"/>
         <v>1428380.1531249995</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +5023,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +5083,7 @@
         <v>2380800</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1343,12 +5126,12 @@
       <c r="O20" s="5">
         <v>75923.969375000001</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="8">
         <f t="shared" si="4"/>
         <v>1089619.846875</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +5179,7 @@
         <v>2348422.0799999996</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1444,23 +5227,406 @@
         <v>1522612.2528000001</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>10</v>
       </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>11</v>
       </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="6">
+        <f>P17</f>
+        <v>1428380.1531249995</v>
+      </c>
+      <c r="N25" s="6">
+        <f>P21</f>
+        <v>2348422.0799999996</v>
+      </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>12</v>
       </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="6">
+        <f>P20</f>
+        <v>1089619.846875</v>
+      </c>
+      <c r="N26" s="6">
+        <f>P22</f>
+        <v>1522612.2528000001</v>
+      </c>
+      <c r="P26" s="7">
+        <f>P22*1.5</f>
+        <v>2283918.3792000003</v>
+      </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="6">
+        <f>SUM(M25:M26)</f>
+        <v>2517999.9999999995</v>
+      </c>
+      <c r="N27" s="6">
+        <f>SUM(N25:N26)</f>
+        <v>3871034.3328</v>
+      </c>
+      <c r="P27" s="7">
+        <f>P26/100000</f>
+        <v>22.839183792000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28">
+        <f>M25/M27</f>
+        <v>0.56726773356830806</v>
+      </c>
+      <c r="N28">
+        <f>N25/N27</f>
+        <v>0.60666526775579821</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f>F20/F19</f>
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:P29" si="7">G20/G19</f>
+        <v>0.46440972222222221</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>0.46440972222222221</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>0.546875</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>0.46842000596788197</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>0.45873687947591152</v>
+      </c>
+      <c r="M29">
+        <f>M20/M19</f>
+        <v>0.70114503580729159</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>0.47877067382812499</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>0.49429667561848961</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>0.45766962654359883</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="C31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="12">
+        <f>D22/D20</f>
+        <v>1.4112121263157897</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" ref="D31:E32" si="8">E22/E20</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <f>F22/F20</f>
+        <v>1.4239201846153846</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" ref="G31:P31" si="9">G22/G20</f>
+        <v>1.3839971887850469</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.3839971887850469</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.1752992</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.9485223578947368</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.3721483749865089</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.4011120072454315</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="9"/>
+        <v>0.91670298893288649</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.342483541986407</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.3003157449840588</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="9"/>
+        <v>1.3973793311188398</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="C32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="12">
+        <f>D22/D19</f>
+        <v>0.62067200000000011</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" ref="E32:O32" si="10">F22/F19</f>
+        <v>0.64274175</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="10"/>
+        <v>0.64274175</v>
+      </c>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="34" spans="3:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="C34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="12">
+        <f>D20/D19</f>
+        <v>0.43981481481481483</v>
+      </c>
+      <c r="E34" s="12" t="e">
+        <f>E20/E19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" ref="E34:O34" si="11">F20/F19</f>
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.46440972222222221</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.46440972222222221</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.546875</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.46842000596788197</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.45873687947591152</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.70114503580729159</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.47877067382812499</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="11"/>
+        <v>0.49429667561848961</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="C35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <f>D17/D21</f>
+        <v>0.65410217632325274</v>
+      </c>
+      <c r="E35">
+        <f>E17/E21</f>
+        <v>0.63263490439887693</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="E35:O35" si="12">F17/F21</f>
+        <v>0.61585128604658612</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>0.61585128604658612</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>0.61585128604658612</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>0.61585128604658612</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="12"/>
+        <v>0.58073695833340355</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="12"/>
+        <v>0.58125037454157436</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>0.58125037454157436</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="12"/>
+        <v>0.58125037454157436</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="12"/>
+        <v>0.58125037454157436</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="12"/>
+        <v>0.58125037454157436</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1.0353697749196142</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>1.0363344051446943</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1.0372990353697749</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>1.0446945337620579</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>1.0591639871382637</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1.0736334405144694</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>1.0881028938906754</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>1.1025723472668809</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>1.1170418006430869</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>1.1315112540192924</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>1.1459807073954984</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>1.1604501607717042</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1468,5 +5634,7 @@
     <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>